--- a/nlp_knowledge_graphs/papers.xlsx
+++ b/nlp_knowledge_graphs/papers.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -133,34 +133,52 @@
     <t xml:space="preserve">Neural Data-to-Text Generation via Jointly Learning the Segmentation and Correspondence</t>
   </si>
   <si>
+    <t xml:space="preserve">Explainability in data driven NLG</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.aclweb.org/anthology/2020.acl-main.641/</t>
   </si>
   <si>
     <t xml:space="preserve">Step-by-Step: Separating Planning from Realization in Neural Data-to-Text Generation</t>
   </si>
   <si>
+    <t xml:space="preserve">NLG focused planning-realisation distinction</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://arxiv.org/abs/1904.03396</t>
   </si>
   <si>
     <t xml:space="preserve">Generating Factoid Questions With Recurrent Neural Networks: The 30M Factoid Question-Answer Corpus</t>
   </si>
   <si>
+    <t xml:space="preserve">Pre-SQUAD factoid dataset</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://arxiv.org/abs/1603.06807</t>
   </si>
   <si>
     <t xml:space="preserve">Barack’s Wife Hillary: Using Knowledge Graphs for Fact-Aware Language Modeling</t>
   </si>
   <si>
+    <t xml:space="preserve">Language Modelling with KB access</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.aclweb.org/anthology/P19-1598/</t>
   </si>
   <si>
     <t xml:space="preserve">Few-Shot NLG with Pre-Trained Language Model</t>
   </si>
   <si>
+    <t xml:space="preserve">Data-poor NLG</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.aclweb.org/anthology/2020.acl-main.18/</t>
   </si>
   <si>
     <t xml:space="preserve">ENT-DESC: Entity Description Generation by Exploring Knowledge Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New more challenging multi-graph KB</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.aclweb.org/anthology/2020.emnlp-main.90/</t>
@@ -491,11 +509,11 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="60.29"/>
@@ -661,70 +679,70 @@
         <v>35</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,29 +759,35 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>31</v>
+        <v>53</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>44</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="0" t="s">
+        <v>50</v>
+      </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
+      <c r="B23" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
+      <c r="B24" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
     </row>
